--- a/regions/10/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/10/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -239,7 +239,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,7 +547,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.75" customHeight="1">
+    <row r="1" spans="1:18" ht="21.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -566,8 +566,10 @@
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -582,7 +584,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="5"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -629,8 +631,14 @@
       <c r="P3" s="19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="19">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -679,8 +687,14 @@
       <c r="P4" s="11">
         <v>860.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="11">
+        <v>1115.5</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1592.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -729,8 +743,14 @@
       <c r="P5" s="11">
         <v>808.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="11">
+        <v>1115.5</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1592.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -779,8 +799,14 @@
       <c r="P6" s="12">
         <v>17663</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="12">
+        <v>18775</v>
+      </c>
+      <c r="R6" s="12">
+        <v>22120.799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -829,8 +855,14 @@
       <c r="P7" s="12">
         <v>17638</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="12">
+        <v>18640</v>
+      </c>
+      <c r="R7" s="12">
+        <v>21873.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -879,8 +911,14 @@
       <c r="P8" s="13">
         <v>961.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="13">
+        <v>1001.6</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1323.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -929,8 +967,14 @@
       <c r="P9" s="13">
         <v>520.79999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="13">
+        <v>703</v>
+      </c>
+      <c r="R9" s="13">
+        <v>863.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -979,8 +1023,14 @@
       <c r="P10" s="15">
         <v>206.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="15">
+        <v>230.5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>357.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1079,14 @@
       <c r="P11" s="15">
         <v>287.60000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="15">
+        <v>412.5</v>
+      </c>
+      <c r="R11" s="15">
+        <v>729.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1079,8 +1135,14 @@
       <c r="P12" s="13">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="13">
+        <v>55.2</v>
+      </c>
+      <c r="R12" s="13">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1129,8 +1191,14 @@
       <c r="P13" s="13">
         <v>560.70000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="30">
+      <c r="Q13" s="13">
+        <v>708.8</v>
+      </c>
+      <c r="R13" s="13">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1247,14 @@
       <c r="P14" s="15">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="15">
+        <v>0</v>
+      </c>
+      <c r="R14" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1193,7 +1267,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" ht="12.75">
+    <row r="16" spans="1:18" s="6" customFormat="1" ht="12.75">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
@@ -1201,7 +1275,7 @@
     <row r="17" s="1" customFormat="1" ht="12.75"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/10/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/10/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,7 +547,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21.75" customHeight="1">
+    <row r="1" spans="1:19" ht="21.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -584,7 +584,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="5"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -637,8 +637,11 @@
       <c r="R3" s="19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="R4" s="11">
         <v>1592.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="11">
+        <v>1926.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -749,8 +755,11 @@
       <c r="R5" s="11">
         <v>1592.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="11">
+        <v>1929.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -805,8 +814,11 @@
       <c r="R6" s="12">
         <v>22120.799999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="12">
+        <v>24982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -861,8 +873,11 @@
       <c r="R7" s="12">
         <v>21873.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="12">
+        <v>24520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -917,8 +932,11 @@
       <c r="R8" s="13">
         <v>1323.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="13">
+        <v>1481.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -973,8 +991,11 @@
       <c r="R9" s="13">
         <v>863.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="13">
+        <v>1068.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1029,8 +1050,11 @@
       <c r="R10" s="15">
         <v>357.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1085,8 +1109,11 @@
       <c r="R11" s="15">
         <v>729.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="15">
+        <v>860.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1141,8 +1168,11 @@
       <c r="R12" s="13">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="13">
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1197,8 +1227,11 @@
       <c r="R13" s="13">
         <v>869</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
+      <c r="S13" s="13">
+        <v>1057.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1253,8 +1286,11 @@
       <c r="R14" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1267,7 +1303,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="6" customFormat="1" ht="12.75">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="12.75">
       <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
